--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -10694,7 +10694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A893" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D900" sqref="D900"/>
+      <selection pane="bottomLeft" activeCell="B905" sqref="B905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48799,7 +48799,7 @@
         <v>3087</v>
       </c>
       <c r="D900" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F900" s="1">
         <v>112515</v>

--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -10703,7 +10703,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A902" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A913" sqref="A913"/>
+      <selection pane="bottomLeft" activeCell="D917" sqref="D917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49342,7 +49342,7 @@
         <v>3087</v>
       </c>
       <c r="D913" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F913" s="1">
         <v>99075</v>
@@ -49387,7 +49387,7 @@
         <v>3087</v>
       </c>
       <c r="D914" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F914" s="1">
         <v>112663</v>
@@ -49432,7 +49432,7 @@
         <v>3087</v>
       </c>
       <c r="D915" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F915" s="1">
         <v>118745</v>
@@ -49477,7 +49477,7 @@
         <v>3087</v>
       </c>
       <c r="D916" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F916" s="1">
         <v>81598</v>

--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6652" uniqueCount="3264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="3265">
   <si>
     <t>https://leetcode.com/problems/two-sum</t>
   </si>
@@ -9811,6 +9811,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-all-people-with-secret/</t>
+  </si>
+  <si>
+    <t>rolling hash, could not solve</t>
   </si>
 </sst>
 </file>
@@ -10702,8 +10705,8 @@
   <dimension ref="A1:N1814"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A902" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D917" sqref="D917"/>
+      <pane ySplit="1" topLeftCell="A923" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A926" sqref="A926"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49522,7 +49525,7 @@
         <v>3087</v>
       </c>
       <c r="D917" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F917" s="1">
         <v>140594</v>
@@ -49567,7 +49570,7 @@
         <v>3087</v>
       </c>
       <c r="D918" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F918" s="1">
         <v>75982</v>
@@ -49612,7 +49615,7 @@
         <v>3087</v>
       </c>
       <c r="D919" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F919" s="1">
         <v>107051</v>
@@ -49657,7 +49660,7 @@
         <v>3087</v>
       </c>
       <c r="D920" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F920" s="1">
         <v>66283</v>
@@ -49702,7 +49705,7 @@
         <v>3087</v>
       </c>
       <c r="D921" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F921" s="1">
         <v>56885</v>
@@ -49747,7 +49750,7 @@
         <v>3087</v>
       </c>
       <c r="D922" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F922" s="1">
         <v>68849</v>
@@ -49792,7 +49795,7 @@
         <v>3087</v>
       </c>
       <c r="D923" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F923" s="1">
         <v>86207</v>
@@ -49837,7 +49840,7 @@
         <v>3087</v>
       </c>
       <c r="D924" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F924" s="1">
         <v>62906</v>
@@ -49883,6 +49886,9 @@
       </c>
       <c r="D925" t="s">
         <v>3096</v>
+      </c>
+      <c r="E925" t="s">
+        <v>3264</v>
       </c>
       <c r="F925" s="1">
         <v>108896</v>

--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -10723,8 +10723,8 @@
   <dimension ref="A1:N1820"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A938" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A951" sqref="A951"/>
+      <pane ySplit="1" topLeftCell="A956" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A962" sqref="A962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51022,7 +51022,7 @@
         <v>3087</v>
       </c>
       <c r="D952" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F952" s="1">
         <v>55098</v>
@@ -51067,7 +51067,7 @@
         <v>3087</v>
       </c>
       <c r="D953" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F953" s="1">
         <v>36514</v>
@@ -51202,7 +51202,7 @@
         <v>3087</v>
       </c>
       <c r="D956" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F956" s="1">
         <v>74798</v>
@@ -51247,7 +51247,7 @@
         <v>3087</v>
       </c>
       <c r="D957" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F957" s="1">
         <v>61584</v>
@@ -51382,7 +51382,7 @@
         <v>3087</v>
       </c>
       <c r="D960" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F960" s="1">
         <v>38980</v>
@@ -51427,7 +51427,7 @@
         <v>3087</v>
       </c>
       <c r="D961" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F961" s="1">
         <v>43064</v>
@@ -51472,7 +51472,7 @@
         <v>3087</v>
       </c>
       <c r="D962" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F962" s="1">
         <v>54629</v>

--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -10722,9 +10722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1820"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A956" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A962" sqref="A962"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A958" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A968" sqref="A968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51517,7 +51517,7 @@
         <v>3087</v>
       </c>
       <c r="D963" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F963" s="1">
         <v>50116</v>
@@ -51607,7 +51607,7 @@
         <v>3087</v>
       </c>
       <c r="D965" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F965" s="1">
         <v>41228</v>
@@ -51697,7 +51697,7 @@
         <v>3087</v>
       </c>
       <c r="D967" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F967" s="1">
         <v>29902</v>

--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -10724,7 +10724,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A958" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A968" sqref="A968"/>
+      <selection pane="bottomLeft" activeCell="A970" sqref="A970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51742,7 +51742,7 @@
         <v>3087</v>
       </c>
       <c r="D968" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F968" s="1">
         <v>45751</v>
@@ -51787,7 +51787,7 @@
         <v>3087</v>
       </c>
       <c r="D969" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F969" s="1">
         <v>56512</v>

--- a/Problem_Solving_Python/leetcode/problem_list.xlsx
+++ b/Problem_Solving_Python/leetcode/problem_list.xlsx
@@ -10732,8 +10732,8 @@
   <dimension ref="A1:N1823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A984" sqref="A984"/>
+      <pane ySplit="1" topLeftCell="A981" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A996" sqref="A996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52417,7 +52417,7 @@
         <v>3087</v>
       </c>
       <c r="D984" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F984" s="1">
         <v>56568</v>
@@ -52597,7 +52597,7 @@
         <v>3087</v>
       </c>
       <c r="D988" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F988" s="1">
         <v>43137</v>
@@ -52642,7 +52642,7 @@
         <v>3087</v>
       </c>
       <c r="D989" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F989" s="1">
         <v>37108</v>
@@ -52732,7 +52732,7 @@
         <v>3087</v>
       </c>
       <c r="D991" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F991" s="1">
         <v>31802</v>
@@ -52777,7 +52777,7 @@
         <v>3087</v>
       </c>
       <c r="D992" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F992" s="1">
         <v>27109</v>
@@ -52822,7 +52822,7 @@
         <v>3087</v>
       </c>
       <c r="D993" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F993" s="1">
         <v>29217</v>
@@ -52912,7 +52912,7 @@
         <v>3087</v>
       </c>
       <c r="D995" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="F995" s="1">
         <v>37445</v>
